--- a/BackTest/2020-01-22 BackTest GXC.xlsx
+++ b/BackTest/2020-01-22 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>478.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>437412.7493999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>437413.8493999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>474</v>
+      </c>
+      <c r="J6" t="n">
+        <v>474</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>435848.8493999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>477</v>
+      </c>
+      <c r="J7" t="n">
+        <v>474</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>435849.9493999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>474</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>435940.1636999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>474</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>436895.7316999998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>478</v>
+      </c>
+      <c r="J10" t="n">
+        <v>474</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>437209.2208999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>478.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>474</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>437220.2208999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>474</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>440820.2208999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>480.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>474</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +930,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>474</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +966,19 @@
         <v>440850.2208999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>474</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1007,19 @@
         <v>439900.4549999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>474</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1048,19 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>481</v>
+      </c>
+      <c r="J17" t="n">
+        <v>474</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1089,19 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>474</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1130,19 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>474</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1174,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>474</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1210,19 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>474</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1254,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>474</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1290,19 @@
         <v>439785.3779999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>474</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1331,19 @@
         <v>438753.0544999998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>481</v>
+      </c>
+      <c r="J24" t="n">
+        <v>474</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1372,19 @@
         <v>438774.0544999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>480.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>474</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1416,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>474</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1455,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>474</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1494,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>474</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1533,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>474</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1572,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>474</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1611,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>474</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1650,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>474</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1689,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>474</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1728,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>474</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1767,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>474</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>474</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1845,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>474</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1884,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>474</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1923,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>474</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1962,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>474</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2001,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>474</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2040,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>474</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2079,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>474</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2118,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>474</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2157,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>474</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2196,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>474</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2235,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>474</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>474</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2313,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>474</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2391,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>474</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2430,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2469,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>474</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2508,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>474</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2547,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>474</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2586,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>474</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2625,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>474</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2661,17 @@
         <v>452259.5330911397</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>486</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>486</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2704,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2379,11 +2743,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2418,7 +2782,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2457,7 +2821,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2496,7 +2860,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2535,7 +2899,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2574,7 +2938,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2613,7 +2977,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2652,7 +3016,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2691,7 +3055,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2730,7 +3094,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2769,7 +3133,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2808,7 +3172,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2847,7 +3211,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2886,7 +3250,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2925,7 +3289,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2964,7 +3328,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3003,7 +3367,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3042,7 +3406,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3081,7 +3445,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3120,7 +3484,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3159,7 +3523,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3198,7 +3562,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3237,7 +3601,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3272,23 +3636,21 @@
         <v>497342.0106623998</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.136975308641975</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.054522400676247</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3313,11 +3675,17 @@
         <v>483932.7149623998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>474</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +3714,17 @@
         <v>467933.8194623998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>474</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3379,11 +3753,17 @@
         <v>467623.7485623998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>474</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3792,17 @@
         <v>475300.1507623998</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>474</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3448,8 +3834,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>474</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3481,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>474</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3514,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>474</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3544,15 +3948,23 @@
         <v>411862.1308623998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>474</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>1.079810126582279</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.010337552742616</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3577,7 +3989,7 @@
         <v>383444.6634474698</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3610,7 +4022,7 @@
         <v>363274.3292474698</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3643,7 +4055,7 @@
         <v>352503.2413758198</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3676,7 +4088,7 @@
         <v>353828.7428758199</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3709,7 +4121,7 @@
         <v>370168.0312041698</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3742,7 +4154,7 @@
         <v>368026.8713041698</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3775,7 +4187,7 @@
         <v>371030.0001041698</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3808,7 +4220,7 @@
         <v>377893.9027041698</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3841,7 +4253,7 @@
         <v>379636.0188041698</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3874,7 +4286,7 @@
         <v>381754.1266041698</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3907,7 +4319,7 @@
         <v>379093.3370041698</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3940,7 +4352,7 @@
         <v>379103.3370041698</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3973,7 +4385,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4006,7 +4418,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4039,7 +4451,7 @@
         <v>371943.0879041698</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4072,7 +4484,7 @@
         <v>370477.7103041698</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4105,7 +4517,7 @@
         <v>358842.3172041698</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4138,7 +4550,7 @@
         <v>344959.3154041698</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4149,6 +4561,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest GXC.xlsx
+++ b/BackTest/2020-01-22 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>478.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>478.9</v>
       </c>
@@ -562,11 +560,9 @@
         <v>437412.7493999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>478.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>478.9</v>
       </c>
@@ -603,14 +599,10 @@
         <v>437413.8493999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>474</v>
-      </c>
-      <c r="J6" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +632,11 @@
         <v>435848.8493999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>477</v>
-      </c>
-      <c r="J7" t="n">
-        <v>474</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +665,11 @@
         <v>435849.9493999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>473.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>474</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +698,11 @@
         <v>435940.1636999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>477.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>474</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +731,11 @@
         <v>436895.7316999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>478</v>
-      </c>
-      <c r="J10" t="n">
-        <v>474</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +764,11 @@
         <v>437209.2208999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>478.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>474</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +797,11 @@
         <v>437220.2208999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>474</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +830,11 @@
         <v>440820.2208999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>480.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>474</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -930,14 +866,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>474</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -966,19 +896,11 @@
         <v>440850.2208999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>482.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>474</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1007,19 +929,11 @@
         <v>439900.4549999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>482.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>474</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1048,19 +962,11 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>481</v>
-      </c>
-      <c r="J17" t="n">
-        <v>474</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1089,19 +995,11 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>474</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1130,19 +1028,11 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>474</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1174,14 +1064,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>474</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1210,19 +1094,11 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>474</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1254,14 +1130,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>474</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1290,19 +1160,11 @@
         <v>439785.3779999998</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>474</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1331,19 +1193,11 @@
         <v>438753.0544999998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>481</v>
-      </c>
-      <c r="J24" t="n">
-        <v>474</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1372,19 +1226,11 @@
         <v>438774.0544999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>480.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>474</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>474</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1455,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>474</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1494,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>474</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1533,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>474</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1572,14 +1394,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>474</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1611,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>474</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1650,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>474</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1689,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>474</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1728,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>474</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1767,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>474</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1806,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>474</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1845,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>474</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1884,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>474</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1923,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>474</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1962,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>474</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2001,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>474</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2040,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>474</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>474</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>474</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>474</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>474</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>474</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>474</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>474</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2352,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>474</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2391,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>474</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>474</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2469,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>474</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>474</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>474</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>474</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>474</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>474</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>474</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>474</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>474</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>474</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>474</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>474</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>474</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>474</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>474</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>474</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>474</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>474</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>474</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>474</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>474</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>474</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>474</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>474</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3402,17 +2942,11 @@
         <v>504062.5023927798</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>474</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3441,17 +2975,11 @@
         <v>499651.2754927798</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>474</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3480,17 +3008,11 @@
         <v>511917.8152229298</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>474</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3519,17 +3041,11 @@
         <v>506475.7949229298</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>474</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3558,17 +3074,11 @@
         <v>512993.9238623998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>474</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3597,17 +3107,11 @@
         <v>489644.8367623998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>474</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3636,17 +3140,11 @@
         <v>497342.0106623998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>474</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>474</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>474</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>474</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3792,17 +3272,11 @@
         <v>475300.1507623998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>474</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3831,17 +3305,11 @@
         <v>416469.7557623998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>474</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3870,17 +3338,11 @@
         <v>435157.4375623998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>474</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3909,17 +3371,11 @@
         <v>415833.8524623998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>474</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3951,20 +3407,12 @@
         <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>474</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>1.079810126582279</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.010337552742616</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4022,7 +3470,7 @@
         <v>363274.3292474698</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4055,7 +3503,7 @@
         <v>352503.2413758198</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4088,7 +3536,7 @@
         <v>353828.7428758199</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4121,7 +3569,7 @@
         <v>370168.0312041698</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4154,7 +3602,7 @@
         <v>368026.8713041698</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4187,7 +3635,7 @@
         <v>371030.0001041698</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4220,7 +3668,7 @@
         <v>377893.9027041698</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4253,7 +3701,7 @@
         <v>379636.0188041698</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4550,7 +3998,7 @@
         <v>344959.3154041698</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4561,6 +4009,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest GXC.xlsx
+++ b/BackTest/2020-01-22 BackTest GXC.xlsx
@@ -521,9 +521,11 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>478.9</v>
+      </c>
       <c r="J4" t="n">
         <v>478.9</v>
       </c>
@@ -599,10 +601,14 @@
         <v>437413.8493999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>474</v>
+      </c>
+      <c r="J6" t="n">
+        <v>474</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,11 +638,19 @@
         <v>435848.8493999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>477</v>
+      </c>
+      <c r="J7" t="n">
+        <v>474</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -668,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>474</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -701,8 +721,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>474</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -734,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>474</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -767,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>474</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -800,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>474</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +877,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>474</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -866,8 +916,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>474</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -899,8 +955,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>474</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -932,8 +994,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>474</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1033,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>474</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -998,8 +1072,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>474</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1031,8 +1111,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>474</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1064,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>474</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1097,8 +1189,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>474</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1130,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>474</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1163,8 +1267,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>474</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1196,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>474</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1345,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>474</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1384,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>474</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1295,8 +1423,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>474</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1462,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>474</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>474</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1540,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>474</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>474</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>474</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>474</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>474</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>474</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>474</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>474</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>474</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>474</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>474</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>474</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>474</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>474</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>474</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>474</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>474</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>474</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>474</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2021,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>474</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>474</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2153,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>474</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>474</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>474</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2252,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>474</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>474</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>474</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2351,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>474</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>474</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>474</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2450,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>474</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>474</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2516,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>474</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2549,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>474</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>474</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2615,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>474</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2648,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>474</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +3061,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>474</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2714,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>474</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3139,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>474</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>474</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2813,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>474</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3295,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>474</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>474</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3370,17 @@
         <v>504062.5023927798</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>474</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3409,17 @@
         <v>499651.2754927798</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>474</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +3448,17 @@
         <v>511917.8152229298</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>474</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3044,12 +3490,20 @@
         <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>474</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>1.138037974683544</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.010337552742616</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3173,7 +3627,7 @@
         <v>483932.7149623998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3660,7 @@
         <v>467933.8194623998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3693,7 @@
         <v>467623.7485623998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3338,7 +3792,7 @@
         <v>435157.4375623998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3371,7 +3825,7 @@
         <v>415833.8524623998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3858,7 @@
         <v>411862.1308623998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3891,7 @@
         <v>383444.6634474698</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3734,7 +4188,7 @@
         <v>381754.1266041698</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3866,7 +4320,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +4353,7 @@
         <v>371943.0879041698</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3932,7 +4386,7 @@
         <v>370477.7103041698</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3998,7 +4452,7 @@
         <v>344959.3154041698</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest GXC.xlsx
+++ b/BackTest/2020-01-22 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>104.46230945</v>
       </c>
       <c r="G2" t="n">
-        <v>438362.7493999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>3.3413</v>
       </c>
       <c r="G3" t="n">
-        <v>438362.7493999998</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>478.9</v>
       </c>
       <c r="I3" t="n">
         <v>478.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>935.8947588</v>
       </c>
       <c r="G4" t="n">
-        <v>438362.7493999998</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>478.9</v>
       </c>
       <c r="I4" t="n">
         <v>478.9</v>
       </c>
-      <c r="J4" t="n">
-        <v>478.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,23 @@
         <v>950</v>
       </c>
       <c r="G5" t="n">
-        <v>437412.7493999998</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
         <v>478.9</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>478.9</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +583,19 @@
         <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.8493999998</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="I6" t="n">
         <v>474</v>
       </c>
-      <c r="J6" t="n">
-        <v>474</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,26 +617,23 @@
         <v>1565</v>
       </c>
       <c r="G7" t="n">
-        <v>435848.8493999998</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>477</v>
       </c>
       <c r="I7" t="n">
-        <v>477</v>
-      </c>
-      <c r="J7" t="n">
-        <v>474</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>474</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +655,23 @@
         <v>1.1</v>
       </c>
       <c r="G8" t="n">
-        <v>435849.9493999998</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>474</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>473.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>474</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +693,23 @@
         <v>90.21429999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>435940.1636999997</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>474</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>477.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>474</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +731,21 @@
         <v>955.568</v>
       </c>
       <c r="G10" t="n">
-        <v>436895.7316999998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>474</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>474</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +767,21 @@
         <v>313.4892</v>
       </c>
       <c r="G11" t="n">
-        <v>437209.2208999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>474</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>474</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +803,21 @@
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>437220.2208999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>474</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>474</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +839,21 @@
         <v>3600</v>
       </c>
       <c r="G13" t="n">
-        <v>440820.2208999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>474</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>474</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +875,21 @@
         <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>440850.2208999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>474</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>474</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +911,21 @@
         <v>1583.9762</v>
       </c>
       <c r="G15" t="n">
-        <v>440850.2208999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>474</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>474</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +947,21 @@
         <v>949.7659</v>
       </c>
       <c r="G16" t="n">
-        <v>439900.4549999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>474</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>474</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +983,21 @@
         <v>162.4358</v>
       </c>
       <c r="G17" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>474</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>474</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +1019,21 @@
         <v>123.2489</v>
       </c>
       <c r="G18" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>474</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>474</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +1055,21 @@
         <v>81.29000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>474</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>474</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +1091,21 @@
         <v>398.4143</v>
       </c>
       <c r="G20" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>474</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>474</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1127,21 @@
         <v>90.8546</v>
       </c>
       <c r="G21" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>474</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>474</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1163,21 @@
         <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>439738.0191999998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>474</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>474</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1199,21 @@
         <v>47.3588</v>
       </c>
       <c r="G23" t="n">
-        <v>439785.3779999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>474</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>474</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1235,21 @@
         <v>1032.3235</v>
       </c>
       <c r="G24" t="n">
-        <v>438753.0544999998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>474</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>474</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,24 +1271,21 @@
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>438774.0544999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>474</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>474</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,24 +1307,21 @@
         <v>81.29000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>438692.7644999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>474</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>474</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1417,24 +1343,21 @@
         <v>1.1</v>
       </c>
       <c r="G27" t="n">
-        <v>438693.8644999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>474</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>474</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,24 +1379,21 @@
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>438704.8644999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>474</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>474</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1495,24 +1415,21 @@
         <v>2781.3413</v>
       </c>
       <c r="G29" t="n">
-        <v>435923.5231999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>474</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>474</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1534,24 +1451,21 @@
         <v>291.8437</v>
       </c>
       <c r="G30" t="n">
-        <v>435923.5231999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>474</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>474</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1573,24 +1487,21 @@
         <v>36.585</v>
       </c>
       <c r="G31" t="n">
-        <v>435960.1081999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>474</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>474</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,24 +1523,21 @@
         <v>708.3999</v>
       </c>
       <c r="G32" t="n">
-        <v>435251.7082999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>474</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>474</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1651,24 +1559,21 @@
         <v>165.8389</v>
       </c>
       <c r="G33" t="n">
-        <v>435251.7082999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>474</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>474</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,24 +1595,21 @@
         <v>1800</v>
       </c>
       <c r="G34" t="n">
-        <v>435251.7082999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>474</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>474</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1729,24 +1631,21 @@
         <v>1.1</v>
       </c>
       <c r="G35" t="n">
-        <v>435252.8082999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>474</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>474</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,24 +1667,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>435262.8082999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>474</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>474</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1807,24 +1703,21 @@
         <v>280</v>
       </c>
       <c r="G37" t="n">
-        <v>434982.8082999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>474</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>474</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1846,24 +1739,21 @@
         <v>178.1799</v>
       </c>
       <c r="G38" t="n">
-        <v>435160.9881999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>474</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>474</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1885,24 +1775,21 @@
         <v>1.1</v>
       </c>
       <c r="G39" t="n">
-        <v>435162.0881999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>474</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>474</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,24 +1811,21 @@
         <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>435142.0881999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>474</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>474</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1963,24 +1847,21 @@
         <v>2170.0032</v>
       </c>
       <c r="G41" t="n">
-        <v>437312.0913999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>474</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>474</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2002,24 +1883,21 @@
         <v>5310.3406</v>
       </c>
       <c r="G42" t="n">
-        <v>442622.4319999997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>474</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>474</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2041,24 +1919,21 @@
         <v>5314.6355</v>
       </c>
       <c r="G43" t="n">
-        <v>447937.0674999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>474</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>474</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2080,24 +1955,21 @@
         <v>270.5596</v>
       </c>
       <c r="G44" t="n">
-        <v>447666.5078999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>474</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>474</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2119,24 +1991,21 @@
         <v>434.1507</v>
       </c>
       <c r="G45" t="n">
-        <v>447666.5078999997</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>474</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>474</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2158,24 +2027,21 @@
         <v>205.0054</v>
       </c>
       <c r="G46" t="n">
-        <v>447666.5078999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>474</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>474</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2197,24 +2063,21 @@
         <v>7148.46389114</v>
       </c>
       <c r="G47" t="n">
-        <v>454814.9717911397</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>474</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>474</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2236,24 +2099,21 @@
         <v>2320</v>
       </c>
       <c r="G48" t="n">
-        <v>452494.9717911397</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>474</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>474</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2275,24 +2135,21 @@
         <v>402.435</v>
       </c>
       <c r="G49" t="n">
-        <v>452494.9717911397</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>474</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>474</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2314,24 +2171,21 @@
         <v>285</v>
       </c>
       <c r="G50" t="n">
-        <v>452494.9717911397</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>474</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>474</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2353,24 +2207,21 @@
         <v>1325</v>
       </c>
       <c r="G51" t="n">
-        <v>451169.9717911397</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>474</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>474</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2392,24 +2243,21 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>450669.9717911397</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>474</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>474</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2431,24 +2279,21 @@
         <v>1.027</v>
       </c>
       <c r="G53" t="n">
-        <v>450670.9987911397</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>474</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>474</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2470,24 +2315,21 @@
         <v>1.024</v>
       </c>
       <c r="G54" t="n">
-        <v>450672.0227911397</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>474</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>474</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2509,24 +2351,21 @@
         <v>308.973</v>
       </c>
       <c r="G55" t="n">
-        <v>450980.9957911397</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>474</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>474</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2548,24 +2387,21 @@
         <v>1355.0791</v>
       </c>
       <c r="G56" t="n">
-        <v>452336.0748911397</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>474</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>474</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2587,24 +2423,21 @@
         <v>77.6418</v>
       </c>
       <c r="G57" t="n">
-        <v>452258.4330911397</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>474</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>474</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2626,24 +2459,21 @@
         <v>1.1</v>
       </c>
       <c r="G58" t="n">
-        <v>452259.5330911397</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>474</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>474</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2665,24 +2495,21 @@
         <v>628.6558</v>
       </c>
       <c r="G59" t="n">
-        <v>451630.8772911397</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>474</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>474</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2704,24 +2531,21 @@
         <v>2823.7831</v>
       </c>
       <c r="G60" t="n">
-        <v>448807.0941911397</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>474</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>474</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2743,24 +2567,21 @@
         <v>1046.7876</v>
       </c>
       <c r="G61" t="n">
-        <v>447760.3065911397</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>474</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>474</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2782,24 +2603,21 @@
         <v>1134.8783</v>
       </c>
       <c r="G62" t="n">
-        <v>448895.1848911397</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>474</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>474</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2821,24 +2639,21 @@
         <v>1067.3195</v>
       </c>
       <c r="G63" t="n">
-        <v>448895.1848911397</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>474</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>474</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2860,24 +2675,21 @@
         <v>1491.51</v>
       </c>
       <c r="G64" t="n">
-        <v>450386.6948911397</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>474</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>474</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2899,24 +2711,21 @@
         <v>2523.8362</v>
       </c>
       <c r="G65" t="n">
-        <v>452910.5310911397</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>474</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>474</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2938,24 +2747,21 @@
         <v>900</v>
       </c>
       <c r="G66" t="n">
-        <v>452010.5310911397</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>474</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>474</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2977,24 +2783,21 @@
         <v>2714.6887</v>
       </c>
       <c r="G67" t="n">
-        <v>454725.2197911397</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>474</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>474</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3016,24 +2819,21 @@
         <v>2485.8738</v>
       </c>
       <c r="G68" t="n">
-        <v>457211.0935911397</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>474</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>474</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3055,24 +2855,21 @@
         <v>70</v>
       </c>
       <c r="G69" t="n">
-        <v>457281.0935911397</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>474</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>474</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3094,24 +2891,21 @@
         <v>731.764</v>
       </c>
       <c r="G70" t="n">
-        <v>458012.8575911397</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>474</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>474</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3133,24 +2927,21 @@
         <v>569.5652</v>
       </c>
       <c r="G71" t="n">
-        <v>458012.8575911397</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>474</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>474</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3172,24 +2963,21 @@
         <v>7569.84800886</v>
       </c>
       <c r="G72" t="n">
-        <v>465582.7055999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>474</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>474</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3211,24 +2999,21 @@
         <v>13127.01703624</v>
       </c>
       <c r="G73" t="n">
-        <v>478709.7226362398</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>474</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>474</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3250,24 +3035,21 @@
         <v>11339.6214</v>
       </c>
       <c r="G74" t="n">
-        <v>490049.3440362398</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>474</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>474</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3289,24 +3071,21 @@
         <v>10398.6063</v>
       </c>
       <c r="G75" t="n">
-        <v>500447.9503362398</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>474</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>474</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3328,24 +3107,21 @@
         <v>1917.4452</v>
       </c>
       <c r="G76" t="n">
-        <v>502365.3955362398</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>474</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>474</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3367,24 +3143,21 @@
         <v>1697.10685654</v>
       </c>
       <c r="G77" t="n">
-        <v>504062.5023927798</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>474</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>474</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3406,24 +3179,21 @@
         <v>4411.2269</v>
       </c>
       <c r="G78" t="n">
-        <v>499651.2754927798</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>474</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>474</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3445,24 +3215,21 @@
         <v>12266.53973015</v>
       </c>
       <c r="G79" t="n">
-        <v>511917.8152229298</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>474</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>474</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3484,26 +3251,21 @@
         <v>5442.0203</v>
       </c>
       <c r="G80" t="n">
-        <v>506475.7949229298</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>474</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1.138037974683544</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.010337552742616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>474</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3525,18 +3287,21 @@
         <v>6518.12893947</v>
       </c>
       <c r="G81" t="n">
-        <v>512993.9238623998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>474</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3558,18 +3323,21 @@
         <v>23349.0871</v>
       </c>
       <c r="G82" t="n">
-        <v>489644.8367623998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>474</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3591,18 +3359,21 @@
         <v>7697.1739</v>
       </c>
       <c r="G83" t="n">
-        <v>497342.0106623998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>474</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3624,18 +3395,23 @@
         <v>13409.2957</v>
       </c>
       <c r="G84" t="n">
-        <v>483932.7149623998</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>474</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1.138459915611814</v>
+      </c>
       <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>1.010337552742616</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3657,18 +3433,15 @@
         <v>15998.8955</v>
       </c>
       <c r="G85" t="n">
-        <v>467933.8194623998</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3690,18 +3463,15 @@
         <v>310.0709</v>
       </c>
       <c r="G86" t="n">
-        <v>467623.7485623998</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3723,18 +3493,15 @@
         <v>7676.4022</v>
       </c>
       <c r="G87" t="n">
-        <v>475300.1507623998</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3756,18 +3523,15 @@
         <v>58830.395</v>
       </c>
       <c r="G88" t="n">
-        <v>416469.7557623998</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3789,18 +3553,15 @@
         <v>18687.6818</v>
       </c>
       <c r="G89" t="n">
-        <v>435157.4375623998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3822,18 +3583,15 @@
         <v>19323.5851</v>
       </c>
       <c r="G90" t="n">
-        <v>415833.8524623998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3855,18 +3613,15 @@
         <v>3971.7216</v>
       </c>
       <c r="G91" t="n">
-        <v>411862.1308623998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3888,18 +3643,15 @@
         <v>28417.46741493</v>
       </c>
       <c r="G92" t="n">
-        <v>383444.6634474698</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3921,18 +3673,15 @@
         <v>20170.3342</v>
       </c>
       <c r="G93" t="n">
-        <v>363274.3292474698</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3954,18 +3703,15 @@
         <v>10771.08787165</v>
       </c>
       <c r="G94" t="n">
-        <v>352503.2413758198</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3987,18 +3733,15 @@
         <v>1325.5015</v>
       </c>
       <c r="G95" t="n">
-        <v>353828.7428758199</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4020,18 +3763,15 @@
         <v>16339.28832835</v>
       </c>
       <c r="G96" t="n">
-        <v>370168.0312041698</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4053,18 +3793,15 @@
         <v>2141.1599</v>
       </c>
       <c r="G97" t="n">
-        <v>368026.8713041698</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4086,18 +3823,15 @@
         <v>3003.1288</v>
       </c>
       <c r="G98" t="n">
-        <v>371030.0001041698</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4119,18 +3853,15 @@
         <v>6863.9026</v>
       </c>
       <c r="G99" t="n">
-        <v>377893.9027041698</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4152,18 +3883,15 @@
         <v>1742.1161</v>
       </c>
       <c r="G100" t="n">
-        <v>379636.0188041698</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4185,18 +3913,15 @@
         <v>2118.1078</v>
       </c>
       <c r="G101" t="n">
-        <v>381754.1266041698</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4218,18 +3943,15 @@
         <v>2660.7896</v>
       </c>
       <c r="G102" t="n">
-        <v>379093.3370041698</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4251,18 +3973,15 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>379103.3370041698</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4284,18 +4003,15 @@
         <v>3312.8954</v>
       </c>
       <c r="G104" t="n">
-        <v>375790.4416041698</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4317,18 +4033,15 @@
         <v>2133.1046</v>
       </c>
       <c r="G105" t="n">
-        <v>375790.4416041698</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4350,18 +4063,15 @@
         <v>3847.3537</v>
       </c>
       <c r="G106" t="n">
-        <v>371943.0879041698</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4383,18 +4093,15 @@
         <v>1465.3776</v>
       </c>
       <c r="G107" t="n">
-        <v>370477.7103041698</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4416,18 +4123,15 @@
         <v>11635.3931</v>
       </c>
       <c r="G108" t="n">
-        <v>358842.3172041698</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4449,18 +4153,15 @@
         <v>13883.0018</v>
       </c>
       <c r="G109" t="n">
-        <v>344959.3154041698</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
